--- a/materiais/2_MODULO  - POWER_BI - Essentials/2_LOCAOÇÃO DE VEICULOS/CLIENTES.xlsx
+++ b/materiais/2_MODULO  - POWER_BI - Essentials/2_LOCAOÇÃO DE VEICULOS/CLIENTES.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\DATA_ANALYTICIS\POWER BI\PROFESSOR\AULA - 2_LOCAOÇÃO DE VEICULOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.carregozi\Desktop\curso-pbi-sqlserver\materiais\2_MODULO  - POWER_BI - Essentials\2_LOCAOÇÃO DE VEICULOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E089CC99-99C5-4A85-9E5B-BBF61438AA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{A1FE9260-B72C-4EC0-948F-971133375286}"/>
+    <workbookView xWindow="20280" yWindow="-120" windowWidth="19440" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$28</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>NOME</t>
   </si>
@@ -222,12 +221,21 @@
   </si>
   <si>
     <t>OSASCO</t>
+  </si>
+  <si>
+    <t>BARROS</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>TAGUATINGA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -693,21 +701,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112B085A-D0B1-452C-BF11-97DBB2E9F98B}">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD32"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="21.85546875" style="1"/>
-    <col min="3" max="3" width="45.42578125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="21.85546875" style="1"/>
+    <col min="1" max="2" width="21.81640625" style="1"/>
+    <col min="3" max="3" width="45.453125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="21.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
@@ -724,7 +732,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>658</v>
       </c>
@@ -741,7 +749,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>375</v>
       </c>
@@ -758,7 +766,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>584</v>
       </c>
@@ -775,7 +783,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>12</v>
       </c>
@@ -792,7 +800,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>569</v>
       </c>
@@ -809,7 +817,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>856</v>
       </c>
@@ -826,7 +834,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>696</v>
       </c>
@@ -843,7 +851,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>326</v>
       </c>
@@ -860,7 +868,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>874</v>
       </c>
@@ -877,7 +885,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>325</v>
       </c>
@@ -894,7 +902,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>698</v>
       </c>
@@ -911,7 +919,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>523</v>
       </c>
@@ -928,7 +936,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>852</v>
       </c>
@@ -945,7 +953,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>627</v>
       </c>
@@ -962,7 +970,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>753</v>
       </c>
@@ -979,7 +987,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>951</v>
       </c>
@@ -996,7 +1004,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>378</v>
       </c>
@@ -1013,7 +1021,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>136</v>
       </c>
@@ -1030,7 +1038,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>185</v>
       </c>
@@ -1047,7 +1055,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>198</v>
       </c>
@@ -1064,7 +1072,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>147</v>
       </c>
@@ -1081,7 +1089,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>9856</v>
       </c>
@@ -1098,7 +1106,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>3258</v>
       </c>
@@ -1115,7 +1123,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>3985</v>
       </c>
@@ -1132,7 +1140,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>3652</v>
       </c>
@@ -1149,7 +1157,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>98741</v>
       </c>
@@ -1166,7 +1174,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>6528</v>
       </c>
@@ -1181,6 +1189,23 @@
       </c>
       <c r="E28" s="9" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>1234</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
